--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_20-18.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_20-18.xlsx
@@ -260,6 +260,9 @@
     <t>OPLEX N PLUS 10 SUPP.</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -308,6 +311,12 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
@@ -359,18 +368,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-5:0</t>
-  </si>
-  <si>
-    <t>105:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>106:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -386,10 +392,13 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فاتيكا بالارجان 70 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>لونا سوفت كريم 160 مل</t>
@@ -2407,17 +2416,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>22.079999999999998</v>
+        <v>31</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2433,17 +2442,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>29</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2451,7 +2460,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2459,17 +2468,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2485,13 +2494,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2511,13 +2520,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2537,13 +2546,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2563,17 +2572,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2581,7 +2590,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2589,17 +2598,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2615,17 +2624,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2641,17 +2650,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2667,17 +2676,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2693,17 +2702,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2719,17 +2728,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2745,17 +2754,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2771,17 +2780,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2797,17 +2806,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2815,7 +2824,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2823,17 +2832,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2841,7 +2850,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2849,17 +2858,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2867,7 +2876,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2875,17 +2884,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2901,17 +2910,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2933,11 +2942,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>7.5</v>
+        <v>68</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2953,17 +2962,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2979,17 +2988,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>140</v>
+        <v>7.5</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2997,7 +3006,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3005,13 +3014,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3023,7 +3032,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3031,17 +3040,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3049,7 +3058,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3057,13 +3066,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3075,7 +3084,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3083,17 +3092,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3109,17 +3118,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3127,7 +3136,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3135,17 +3144,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3153,7 +3162,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3161,17 +3170,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3179,7 +3188,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3187,17 +3196,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3205,7 +3214,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3213,17 +3222,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3239,17 +3248,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3265,13 +3274,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3283,7 +3292,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3291,17 +3300,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3309,7 +3318,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3317,13 +3326,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3343,17 +3352,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3369,13 +3378,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3387,7 +3396,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3395,51 +3404,129 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="97" ht="26.25" customHeight="1">
-      <c r="K97" s="10">
-        <v>6898.7299999999996</v>
-      </c>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="11">
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
+        <v>132</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>133</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>72</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c t="s" r="N97" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
         <v>134</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c t="s" r="F98" s="12">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
+        <v>9</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>70</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
         <v>135</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
-      <c t="s" r="I98" s="14">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
         <v>136</v>
       </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>45</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" ht="26.25" customHeight="1">
+      <c r="K100" s="10">
+        <v>7003.7299999999996</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="11">
+        <v>137</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c t="s" r="F101" s="12">
+        <v>138</v>
+      </c>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c t="s" r="I101" s="14">
+        <v>139</v>
+      </c>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="290">
+  <mergeCells count="299">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3726,10 +3813,19 @@
     <mergeCell ref="B96:G96"/>
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:N98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I101:N101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
